--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pgf-Flt1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pgf-Flt1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Pgf</t>
   </si>
   <si>
     <t>Flt1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.082277333333333</v>
+        <v>3.529548333333333</v>
       </c>
       <c r="H2">
-        <v>3.246832</v>
+        <v>10.588645</v>
       </c>
       <c r="I2">
-        <v>0.3794857194016649</v>
+        <v>0.6379922832219154</v>
       </c>
       <c r="J2">
-        <v>0.3794857194016649</v>
+        <v>0.6379922832219154</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>100.95625</v>
+        <v>136.544502</v>
       </c>
       <c r="N2">
-        <v>302.86875</v>
+        <v>409.633506</v>
       </c>
       <c r="O2">
-        <v>0.9361599519103526</v>
+        <v>0.9681180443787725</v>
       </c>
       <c r="P2">
-        <v>0.9361599519103525</v>
+        <v>0.9681180443787725</v>
       </c>
       <c r="Q2">
-        <v>109.2626610333333</v>
+        <v>481.94041945993</v>
       </c>
       <c r="R2">
-        <v>983.3639492999999</v>
+        <v>4337.46377513937</v>
       </c>
       <c r="S2">
-        <v>0.3552593328257281</v>
+        <v>0.6176518415615486</v>
       </c>
       <c r="T2">
-        <v>0.3552593328257281</v>
+        <v>0.6176518415615486</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.082277333333333</v>
+        <v>3.529548333333333</v>
       </c>
       <c r="H3">
-        <v>3.246832</v>
+        <v>10.588645</v>
       </c>
       <c r="I3">
-        <v>0.3794857194016649</v>
+        <v>0.6379922832219154</v>
       </c>
       <c r="J3">
-        <v>0.3794857194016649</v>
+        <v>0.6379922832219154</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>1.167287</v>
       </c>
       <c r="O3">
-        <v>0.003608055772626195</v>
+        <v>0.002758738216274633</v>
       </c>
       <c r="P3">
-        <v>0.003608055772626195</v>
+        <v>0.002758738216274633</v>
       </c>
       <c r="Q3">
-        <v>0.4211094205315555</v>
+        <v>1.373331961790555</v>
       </c>
       <c r="R3">
-        <v>3.789984784784</v>
+        <v>12.359987656115</v>
       </c>
       <c r="S3">
-        <v>0.001369205640516381</v>
+        <v>0.001760053693412607</v>
       </c>
       <c r="T3">
-        <v>0.001369205640516381</v>
+        <v>0.001760053693412607</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.082277333333333</v>
+        <v>3.529548333333333</v>
       </c>
       <c r="H4">
-        <v>3.246832</v>
+        <v>10.588645</v>
       </c>
       <c r="I4">
-        <v>0.3794857194016649</v>
+        <v>0.6379922832219154</v>
       </c>
       <c r="J4">
-        <v>0.3794857194016649</v>
+        <v>0.6379922832219154</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.498858666666667</v>
+        <v>4.025396333333334</v>
       </c>
       <c r="N4">
-        <v>10.496576</v>
+        <v>12.076189</v>
       </c>
       <c r="O4">
-        <v>0.03244466153534613</v>
+        <v>0.0285405766544606</v>
       </c>
       <c r="P4">
-        <v>0.03244466153534613</v>
+        <v>0.02854057665446059</v>
       </c>
       <c r="Q4">
-        <v>3.786735427470223</v>
+        <v>14.20783091932278</v>
       </c>
       <c r="R4">
-        <v>34.080618847232</v>
+        <v>127.870478273905</v>
       </c>
       <c r="S4">
-        <v>0.01231228572348435</v>
+        <v>0.01820866766424941</v>
       </c>
       <c r="T4">
-        <v>0.01231228572348435</v>
+        <v>0.01820866766424941</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.082277333333333</v>
+        <v>3.529548333333333</v>
       </c>
       <c r="H5">
-        <v>3.246832</v>
+        <v>10.588645</v>
       </c>
       <c r="I5">
-        <v>0.3794857194016649</v>
+        <v>0.6379922832219154</v>
       </c>
       <c r="J5">
-        <v>0.3794857194016649</v>
+        <v>0.6379922832219154</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.996608333333334</v>
+        <v>0.08217633333333334</v>
       </c>
       <c r="N5">
-        <v>8.989825000000002</v>
+        <v>0.246529</v>
       </c>
       <c r="O5">
-        <v>0.02778733078167519</v>
+        <v>0.0005826407504923545</v>
       </c>
       <c r="P5">
-        <v>0.02778733078167519</v>
+        <v>0.0005826407504923544</v>
       </c>
       <c r="Q5">
-        <v>3.243161276044445</v>
+        <v>0.2900453403561111</v>
       </c>
       <c r="R5">
-        <v>29.18845148440001</v>
+        <v>2.610408063205</v>
       </c>
       <c r="S5">
-        <v>0.01054489521193604</v>
+        <v>0.0003717203027047476</v>
       </c>
       <c r="T5">
-        <v>0.01054489521193604</v>
+        <v>0.0003717203027047475</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>1.915459</v>
       </c>
       <c r="I6">
-        <v>0.2238764853245852</v>
+        <v>0.1154111844176443</v>
       </c>
       <c r="J6">
-        <v>0.2238764853245852</v>
+        <v>0.1154111844176443</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>100.95625</v>
+        <v>136.544502</v>
       </c>
       <c r="N6">
-        <v>302.86875</v>
+        <v>409.633506</v>
       </c>
       <c r="O6">
-        <v>0.9361599519103526</v>
+        <v>0.9681180443787725</v>
       </c>
       <c r="P6">
-        <v>0.9361599519103525</v>
+        <v>0.9681180443787725</v>
       </c>
       <c r="Q6">
-        <v>64.45918588958334</v>
+        <v>87.181798418806</v>
       </c>
       <c r="R6">
-        <v>580.13267300625</v>
+        <v>784.636185769254</v>
       </c>
       <c r="S6">
-        <v>0.2095841997353225</v>
+        <v>0.1117316501578476</v>
       </c>
       <c r="T6">
-        <v>0.2095841997353224</v>
+        <v>0.1117316501578476</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>1.915459</v>
       </c>
       <c r="I7">
-        <v>0.2238764853245852</v>
+        <v>0.1154111844176443</v>
       </c>
       <c r="J7">
-        <v>0.2238764853245852</v>
+        <v>0.1154111844176443</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>1.167287</v>
       </c>
       <c r="O7">
-        <v>0.003608055772626195</v>
+        <v>0.002758738216274633</v>
       </c>
       <c r="P7">
-        <v>0.003608055772626195</v>
+        <v>0.002758738216274633</v>
       </c>
       <c r="Q7">
         <v>0.2484322655258889</v>
@@ -883,10 +883,10 @@
         <v>2.235890389733</v>
       </c>
       <c r="S7">
-        <v>0.0008077588452306333</v>
+        <v>0.0003183892450384747</v>
       </c>
       <c r="T7">
-        <v>0.0008077588452306332</v>
+        <v>0.0003183892450384747</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>1.915459</v>
       </c>
       <c r="I8">
-        <v>0.2238764853245852</v>
+        <v>0.1154111844176443</v>
       </c>
       <c r="J8">
-        <v>0.2238764853245852</v>
+        <v>0.1154111844176443</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.498858666666667</v>
+        <v>4.025396333333334</v>
       </c>
       <c r="N8">
-        <v>10.496576</v>
+        <v>12.076189</v>
       </c>
       <c r="O8">
-        <v>0.03244466153534613</v>
+        <v>0.0285405766544606</v>
       </c>
       <c r="P8">
-        <v>0.03244466153534613</v>
+        <v>0.02854057665446059</v>
       </c>
       <c r="Q8">
-        <v>2.233973440931556</v>
+        <v>2.570160545083445</v>
       </c>
       <c r="R8">
-        <v>20.105760968384</v>
+        <v>23.131444905751</v>
       </c>
       <c r="S8">
-        <v>0.007263596792079052</v>
+        <v>0.003293901755653865</v>
       </c>
       <c r="T8">
-        <v>0.007263596792079051</v>
+        <v>0.003293901755653864</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -977,10 +977,10 @@
         <v>1.915459</v>
       </c>
       <c r="I9">
-        <v>0.2238764853245852</v>
+        <v>0.1154111844176443</v>
       </c>
       <c r="J9">
-        <v>0.2238764853245852</v>
+        <v>0.1154111844176443</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.996608333333334</v>
+        <v>0.08217633333333334</v>
       </c>
       <c r="N9">
-        <v>8.989825000000002</v>
+        <v>0.246529</v>
       </c>
       <c r="O9">
-        <v>0.02778733078167519</v>
+        <v>0.0005826407504923545</v>
       </c>
       <c r="P9">
-        <v>0.02778733078167519</v>
+        <v>0.0005826407504923544</v>
       </c>
       <c r="Q9">
-        <v>1.913293467186112</v>
+        <v>0.05246846575677779</v>
       </c>
       <c r="R9">
-        <v>17.219641204675</v>
+        <v>0.472216191811</v>
       </c>
       <c r="S9">
-        <v>0.006220929951953101</v>
+        <v>6.724325910430779E-05</v>
       </c>
       <c r="T9">
-        <v>0.006220929951953101</v>
+        <v>6.724325910430777E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.131194333333333</v>
+        <v>1.109135333333333</v>
       </c>
       <c r="H10">
-        <v>3.393583</v>
+        <v>3.327406</v>
       </c>
       <c r="I10">
-        <v>0.39663779527375</v>
+        <v>0.2004845144158011</v>
       </c>
       <c r="J10">
-        <v>0.39663779527375</v>
+        <v>0.2004845144158011</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>100.95625</v>
+        <v>136.544502</v>
       </c>
       <c r="N10">
-        <v>302.86875</v>
+        <v>409.633506</v>
       </c>
       <c r="O10">
-        <v>0.9361599519103526</v>
+        <v>0.9681180443787725</v>
       </c>
       <c r="P10">
-        <v>0.9361599519103525</v>
+        <v>0.9681180443787725</v>
       </c>
       <c r="Q10">
-        <v>114.2011379145833</v>
+        <v>151.446331740604</v>
       </c>
       <c r="R10">
-        <v>1027.81024123125</v>
+        <v>1363.016985665436</v>
       </c>
       <c r="S10">
-        <v>0.3713164193493021</v>
+        <v>0.1940926760244532</v>
       </c>
       <c r="T10">
-        <v>0.3713164193493021</v>
+        <v>0.1940926760244532</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.131194333333333</v>
+        <v>1.109135333333333</v>
       </c>
       <c r="H11">
-        <v>3.393583</v>
+        <v>3.327406</v>
       </c>
       <c r="I11">
-        <v>0.39663779527375</v>
+        <v>0.2004845144158011</v>
       </c>
       <c r="J11">
-        <v>0.39663779527375</v>
+        <v>0.2004845144158011</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>1.167287</v>
       </c>
       <c r="O11">
-        <v>0.003608055772626195</v>
+        <v>0.002758738216274633</v>
       </c>
       <c r="P11">
-        <v>0.003608055772626195</v>
+        <v>0.002758738216274633</v>
       </c>
       <c r="Q11">
-        <v>0.440142813257889</v>
+        <v>0.4315597519468889</v>
       </c>
       <c r="R11">
-        <v>3.961285319321</v>
+        <v>3.884037767522</v>
       </c>
       <c r="S11">
-        <v>0.00143109128687918</v>
+        <v>0.0005530842916901332</v>
       </c>
       <c r="T11">
-        <v>0.001431091286879181</v>
+        <v>0.0005530842916901331</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.131194333333333</v>
+        <v>1.109135333333333</v>
       </c>
       <c r="H12">
-        <v>3.393583</v>
+        <v>3.327406</v>
       </c>
       <c r="I12">
-        <v>0.39663779527375</v>
+        <v>0.2004845144158011</v>
       </c>
       <c r="J12">
-        <v>0.39663779527375</v>
+        <v>0.2004845144158011</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.498858666666667</v>
+        <v>4.025396333333334</v>
       </c>
       <c r="N12">
-        <v>10.496576</v>
+        <v>12.076189</v>
       </c>
       <c r="O12">
-        <v>0.03244466153534613</v>
+        <v>0.0285405766544606</v>
       </c>
       <c r="P12">
-        <v>0.03244466153534613</v>
+        <v>0.02854057665446059</v>
       </c>
       <c r="Q12">
-        <v>3.957889096867556</v>
+        <v>4.464709303970445</v>
       </c>
       <c r="R12">
-        <v>35.62100187180801</v>
+        <v>40.182383735734</v>
       </c>
       <c r="S12">
-        <v>0.01286877901978273</v>
+        <v>0.005721943651716484</v>
       </c>
       <c r="T12">
-        <v>0.01286877901978273</v>
+        <v>0.005721943651716482</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.109135333333333</v>
+      </c>
+      <c r="H13">
+        <v>3.327406</v>
+      </c>
+      <c r="I13">
+        <v>0.2004845144158011</v>
+      </c>
+      <c r="J13">
+        <v>0.2004845144158011</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.08217633333333334</v>
+      </c>
+      <c r="N13">
+        <v>0.246529</v>
+      </c>
+      <c r="O13">
+        <v>0.0005826407504923545</v>
+      </c>
+      <c r="P13">
+        <v>0.0005826407504923544</v>
+      </c>
+      <c r="Q13">
+        <v>0.09114467486377778</v>
+      </c>
+      <c r="R13">
+        <v>0.820302073774</v>
+      </c>
+      <c r="S13">
+        <v>0.0001168104479413176</v>
+      </c>
+      <c r="T13">
+        <v>0.0001168104479413176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.131194333333333</v>
-      </c>
-      <c r="H13">
-        <v>3.393583</v>
-      </c>
-      <c r="I13">
-        <v>0.39663779527375</v>
-      </c>
-      <c r="J13">
-        <v>0.39663779527375</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>2.996608333333334</v>
-      </c>
-      <c r="N13">
-        <v>8.989825000000002</v>
-      </c>
-      <c r="O13">
-        <v>0.02778733078167519</v>
-      </c>
-      <c r="P13">
-        <v>0.02778733078167519</v>
-      </c>
-      <c r="Q13">
-        <v>3.389746365886112</v>
-      </c>
-      <c r="R13">
-        <v>30.50771729297501</v>
-      </c>
-      <c r="S13">
-        <v>0.01102150561778605</v>
-      </c>
-      <c r="T13">
-        <v>0.01102150561778606</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.2551043333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.765313</v>
+      </c>
+      <c r="I14">
+        <v>0.04611201794463916</v>
+      </c>
+      <c r="J14">
+        <v>0.04611201794463916</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>136.544502</v>
+      </c>
+      <c r="N14">
+        <v>409.633506</v>
+      </c>
+      <c r="O14">
+        <v>0.9681180443787725</v>
+      </c>
+      <c r="P14">
+        <v>0.9681180443787725</v>
+      </c>
+      <c r="Q14">
+        <v>34.833094153042</v>
+      </c>
+      <c r="R14">
+        <v>313.497847377378</v>
+      </c>
+      <c r="S14">
+        <v>0.04464187663492292</v>
+      </c>
+      <c r="T14">
+        <v>0.04464187663492293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.2551043333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.765313</v>
+      </c>
+      <c r="I15">
+        <v>0.04611201794463916</v>
+      </c>
+      <c r="J15">
+        <v>0.04611201794463916</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.3890956666666667</v>
+      </c>
+      <c r="N15">
+        <v>1.167287</v>
+      </c>
+      <c r="O15">
+        <v>0.002758738216274633</v>
+      </c>
+      <c r="P15">
+        <v>0.002758738216274633</v>
+      </c>
+      <c r="Q15">
+        <v>0.09925999064788889</v>
+      </c>
+      <c r="R15">
+        <v>0.893339915831</v>
+      </c>
+      <c r="S15">
+        <v>0.0001272109861334177</v>
+      </c>
+      <c r="T15">
+        <v>0.0001272109861334177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.2551043333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.765313</v>
+      </c>
+      <c r="I16">
+        <v>0.04611201794463916</v>
+      </c>
+      <c r="J16">
+        <v>0.04611201794463916</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.025396333333334</v>
+      </c>
+      <c r="N16">
+        <v>12.076189</v>
+      </c>
+      <c r="O16">
+        <v>0.0285405766544606</v>
+      </c>
+      <c r="P16">
+        <v>0.02854057665446059</v>
+      </c>
+      <c r="Q16">
+        <v>1.026896048017444</v>
+      </c>
+      <c r="R16">
+        <v>9.242064432157001</v>
+      </c>
+      <c r="S16">
+        <v>0.001316063582840836</v>
+      </c>
+      <c r="T16">
+        <v>0.001316063582840836</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.2551043333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.765313</v>
+      </c>
+      <c r="I17">
+        <v>0.04611201794463916</v>
+      </c>
+      <c r="J17">
+        <v>0.04611201794463916</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.08217633333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.246529</v>
+      </c>
+      <c r="O17">
+        <v>0.0005826407504923545</v>
+      </c>
+      <c r="P17">
+        <v>0.0005826407504923544</v>
+      </c>
+      <c r="Q17">
+        <v>0.02096353873077778</v>
+      </c>
+      <c r="R17">
+        <v>0.188671848577</v>
+      </c>
+      <c r="S17">
+        <v>2.686674074198148E-05</v>
+      </c>
+      <c r="T17">
+        <v>2.686674074198148E-05</v>
       </c>
     </row>
   </sheetData>
